--- a/exercises/Lecture 4 - Non linear programming/build_ch4_P4toys.xlsx
+++ b/exercises/Lecture 4 - Non linear programming/build_ch4_P4toys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hebpu\Code_KAMK\K25\JAMK\BusinessAnalytics_Resprictive\exercises\Lecture 4 - Non linear programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689DEB9E-B38E-406D-9AEE-BD27A78DDF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAFD87B-BB1C-4C19-92B9-4022BF19E7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3105" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Answer Report 1" sheetId="5" r:id="rId1"/>
@@ -572,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -624,21 +624,9 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -983,7 +971,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1679,30 +1669,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="21">
         <v>1000</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="21">
         <v>3623.7270617132563</v>
       </c>
     </row>
@@ -1712,53 +1702,53 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="22">
         <v>1</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="22">
         <v>0</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="21">
         <v>1</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="21">
         <v>7.2474541234265129</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1768,102 +1758,102 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="4">
         <v>57.979632987412103</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="4">
         <v>14.020367012587897</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="4">
         <v>57.979632987412103</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="4">
         <v>22.020367012587897</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="4">
         <v>28.989816493706051</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="4">
         <v>31.010183506293949</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="23">
         <v>5000.0026501087423</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1876,7 +1866,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE81D46A-1ED3-4804-BD3A-35599D05C08D}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1908,54 +1900,54 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="4">
         <v>0</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="4">
         <v>-214.43397810013488</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="2">
         <v>7.2474541234265129</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1965,82 +1957,82 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="4">
         <v>57.979632987412103</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="4">
         <v>57.979632987412103</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="4">
         <v>28.989816493706051</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="2">
         <v>5000.0026501087423</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="2">
         <v>1.0206198787675294</v>
       </c>
     </row>
@@ -2086,120 +2078,120 @@
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="21">
         <v>3623.7270617132563</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="F11" s="28" t="s">
+      <c r="D11" s="7"/>
+      <c r="F11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="22">
         <v>0</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="22">
         <v>0</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="22">
         <v>3623.7270617132563</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="22">
         <v>0</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="22">
         <v>3623.7270617132563</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="21">
         <v>7.2474541234265129</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="21">
         <v>0</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="21">
         <v>0</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="21">
         <v>7.2474502020835843</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="21">
         <v>3623.7251010417922</v>
       </c>
     </row>
@@ -2213,7 +2205,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2320,7 +2312,7 @@
         <v>80</v>
       </c>
       <c r="E4" s="9">
-        <f t="shared" ref="E4:E6" si="0">SUMPRODUCT(B4:C4, $B$8:$C$8)</f>
+        <f t="shared" ref="E4" si="0">SUMPRODUCT(B4:C4, $B$8:$C$8)</f>
         <v>57.979553913516554</v>
       </c>
       <c r="F4" s="9"/>
